--- a/IPL/Rajasthan Royals/Rahul Tripathi.xlsx
+++ b/IPL/Rajasthan Royals/Rahul Tripathi.xlsx
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -463,10 +463,13 @@
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I2" t="str">
-        <v>Pune</v>
+        <v>Hyderabad</v>
       </c>
       <c r="J2" t="str">
-        <v>March 29 2022</v>
+        <v>April 02 2023</v>
+      </c>
+      <c r="K2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
@@ -477,31 +480,31 @@
         <v>Rahul Tripathi</v>
       </c>
       <c r="C3" t="str">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D3" t="str">
+        <v>29</v>
+      </c>
+      <c r="E3" t="str">
+        <v>2</v>
+      </c>
+      <c r="F3" t="str">
         <v>3</v>
       </c>
-      <c r="E3" t="str">
-        <v>0</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>162.06</v>
       </c>
       <c r="H3" t="str">
         <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I3" t="str">
-        <v>Pune</v>
+        <v>Jaipur</v>
       </c>
       <c r="J3" t="str">
-        <v>March 29 2022</v>
+        <v>May 07 2023</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 61 runs</v>
+        <v/>
       </c>
     </row>
   </sheetData>
